--- a/summarydataLosAngelesFullRun.xlsx
+++ b/summarydataLosAngelesFullRun.xlsx
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>4</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>5</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -660,13 +660,13 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,10 +740,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
         <v>4</v>
-      </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -877,16 +877,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -917,16 +917,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E27">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -957,16 +957,16 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E29">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E30">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -997,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="E31">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1017,16 +1017,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="E32">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F32">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1037,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E33">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F33">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1057,16 +1057,16 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D34">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="E34">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="E35">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1097,16 +1097,16 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D36">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="E36">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="F36">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1117,16 +1117,16 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="E37">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>238</v>
+        <v>412</v>
       </c>
       <c r="E38">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="F38">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D39">
-        <v>282</v>
+        <v>462</v>
       </c>
       <c r="E39">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="F39">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D40">
-        <v>322</v>
+        <v>537</v>
       </c>
       <c r="E40">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="F40">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D41">
-        <v>373</v>
+        <v>614</v>
       </c>
       <c r="E41">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="F41">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D42">
-        <v>418</v>
+        <v>750</v>
       </c>
       <c r="E42">
-        <v>226</v>
+        <v>422</v>
       </c>
       <c r="F42">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="D43">
-        <v>480</v>
+        <v>882</v>
       </c>
       <c r="E43">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="F43">
-        <v>95</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="D44">
-        <v>538</v>
+        <v>1023</v>
       </c>
       <c r="E44">
-        <v>274</v>
+        <v>591</v>
       </c>
       <c r="F44">
-        <v>127</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="D45">
-        <v>625</v>
+        <v>1161</v>
       </c>
       <c r="E45">
-        <v>322</v>
+        <v>653</v>
       </c>
       <c r="F45">
-        <v>148</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="D46">
-        <v>703</v>
+        <v>1365</v>
       </c>
       <c r="E46">
-        <v>350</v>
+        <v>795</v>
       </c>
       <c r="F46">
-        <v>177</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>192</v>
+        <v>328</v>
       </c>
       <c r="D47">
-        <v>798</v>
+        <v>1594</v>
       </c>
       <c r="E47">
-        <v>406</v>
+        <v>911</v>
       </c>
       <c r="F47">
-        <v>200</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="D48">
-        <v>921</v>
+        <v>1831</v>
       </c>
       <c r="E48">
-        <v>470</v>
+        <v>1016</v>
       </c>
       <c r="F48">
-        <v>237</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="D49">
-        <v>1038</v>
+        <v>2120</v>
       </c>
       <c r="E49">
-        <v>534</v>
+        <v>1174</v>
       </c>
       <c r="F49">
-        <v>240</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>303</v>
+        <v>508</v>
       </c>
       <c r="D50">
-        <v>1159</v>
+        <v>2453</v>
       </c>
       <c r="E50">
-        <v>586</v>
+        <v>1357</v>
       </c>
       <c r="F50">
-        <v>270</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>353</v>
+        <v>570</v>
       </c>
       <c r="D51">
-        <v>1322</v>
+        <v>2829</v>
       </c>
       <c r="E51">
-        <v>660</v>
+        <v>1565</v>
       </c>
       <c r="F51">
-        <v>309</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>392</v>
+        <v>683</v>
       </c>
       <c r="D52">
-        <v>1472</v>
+        <v>3248</v>
       </c>
       <c r="E52">
-        <v>718</v>
+        <v>1760</v>
       </c>
       <c r="F52">
-        <v>362</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>451</v>
+        <v>815</v>
       </c>
       <c r="D53">
-        <v>1670</v>
+        <v>3683</v>
       </c>
       <c r="E53">
-        <v>805</v>
+        <v>1952</v>
       </c>
       <c r="F53">
-        <v>414</v>
+        <v>916</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1457,16 +1457,16 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>504</v>
+        <v>946</v>
       </c>
       <c r="D54">
-        <v>1927</v>
+        <v>4237</v>
       </c>
       <c r="E54">
-        <v>948</v>
+        <v>2251</v>
       </c>
       <c r="F54">
-        <v>475</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>573</v>
+        <v>1096</v>
       </c>
       <c r="D55">
-        <v>2206</v>
+        <v>4819</v>
       </c>
       <c r="E55">
-        <v>1108</v>
+        <v>2525</v>
       </c>
       <c r="F55">
-        <v>525</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>662</v>
+        <v>1264</v>
       </c>
       <c r="D56">
-        <v>2493</v>
+        <v>5525</v>
       </c>
       <c r="E56">
-        <v>1244</v>
+        <v>2885</v>
       </c>
       <c r="F56">
-        <v>587</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>754</v>
+        <v>1488</v>
       </c>
       <c r="D57">
-        <v>2819</v>
+        <v>6269</v>
       </c>
       <c r="E57">
-        <v>1427</v>
+        <v>3206</v>
       </c>
       <c r="F57">
-        <v>638</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>865</v>
+        <v>1731</v>
       </c>
       <c r="D58">
-        <v>3182</v>
+        <v>7146</v>
       </c>
       <c r="E58">
-        <v>1612</v>
+        <v>3712</v>
       </c>
       <c r="F58">
-        <v>705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C59">
-        <v>979</v>
+        <v>1986</v>
       </c>
       <c r="D59">
-        <v>3573</v>
+        <v>8176</v>
       </c>
       <c r="E59">
-        <v>1764</v>
+        <v>4214</v>
       </c>
       <c r="F59">
-        <v>830</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <v>1098</v>
+        <v>2294</v>
       </c>
       <c r="D60">
-        <v>4046</v>
+        <v>9290</v>
       </c>
       <c r="E60">
-        <v>1982</v>
+        <v>4758</v>
       </c>
       <c r="F60">
-        <v>966</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C61">
-        <v>1249</v>
+        <v>2640</v>
       </c>
       <c r="D61">
-        <v>4582</v>
+        <v>10541</v>
       </c>
       <c r="E61">
-        <v>2218</v>
+        <v>5369</v>
       </c>
       <c r="F61">
-        <v>1115</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C62">
-        <v>1392</v>
+        <v>3063</v>
       </c>
       <c r="D62">
-        <v>5220</v>
+        <v>11877</v>
       </c>
       <c r="E62">
-        <v>2586</v>
+        <v>5986</v>
       </c>
       <c r="F62">
-        <v>1242</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C63">
-        <v>1570</v>
+        <v>3434</v>
       </c>
       <c r="D63">
-        <v>5861</v>
+        <v>13314</v>
       </c>
       <c r="E63">
-        <v>2868</v>
+        <v>6588</v>
       </c>
       <c r="F63">
-        <v>1423</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C64">
-        <v>1809</v>
+        <v>3962</v>
       </c>
       <c r="D64">
-        <v>6642</v>
+        <v>14992</v>
       </c>
       <c r="E64">
-        <v>3253</v>
+        <v>7334</v>
       </c>
       <c r="F64">
-        <v>1580</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C65">
-        <v>2064</v>
+        <v>4532</v>
       </c>
       <c r="D65">
-        <v>7485</v>
+        <v>16766</v>
       </c>
       <c r="E65">
-        <v>3674</v>
+        <v>7987</v>
       </c>
       <c r="F65">
-        <v>1747</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C66">
-        <v>2364</v>
+        <v>5172</v>
       </c>
       <c r="D66">
-        <v>8437</v>
+        <v>18616</v>
       </c>
       <c r="E66">
-        <v>4116</v>
+        <v>8699</v>
       </c>
       <c r="F66">
-        <v>1957</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C67">
-        <v>2634</v>
+        <v>5891</v>
       </c>
       <c r="D67">
-        <v>9449</v>
+        <v>20474</v>
       </c>
       <c r="E67">
-        <v>4530</v>
+        <v>9269</v>
       </c>
       <c r="F67">
-        <v>2285</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C68">
-        <v>2993</v>
+        <v>6726</v>
       </c>
       <c r="D68">
-        <v>10627</v>
+        <v>22446</v>
       </c>
       <c r="E68">
-        <v>5081</v>
+        <v>9847</v>
       </c>
       <c r="F68">
-        <v>2553</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="C69">
-        <v>3389</v>
+        <v>7658</v>
       </c>
       <c r="D69">
-        <v>11875</v>
+        <v>24438</v>
       </c>
       <c r="E69">
-        <v>5613</v>
+        <v>10231</v>
       </c>
       <c r="F69">
-        <v>2873</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C70">
-        <v>3811</v>
+        <v>8779</v>
       </c>
       <c r="D70">
-        <v>13272</v>
+        <v>26418</v>
       </c>
       <c r="E70">
-        <v>6182</v>
+        <v>10508</v>
       </c>
       <c r="F70">
-        <v>3279</v>
+        <v>7131</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="C71">
-        <v>4321</v>
+        <v>9917</v>
       </c>
       <c r="D71">
-        <v>14705</v>
+        <v>28502</v>
       </c>
       <c r="E71">
-        <v>6738</v>
+        <v>10775</v>
       </c>
       <c r="F71">
-        <v>3646</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="C72">
-        <v>4919</v>
+        <v>11205</v>
       </c>
       <c r="D72">
-        <v>16175</v>
+        <v>30447</v>
       </c>
       <c r="E72">
-        <v>7207</v>
+        <v>10838</v>
       </c>
       <c r="F72">
-        <v>4049</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="C73">
-        <v>5546</v>
+        <v>12599</v>
       </c>
       <c r="D73">
-        <v>17799</v>
+        <v>32201</v>
       </c>
       <c r="E73">
-        <v>7743</v>
+        <v>10743</v>
       </c>
       <c r="F73">
-        <v>4510</v>
+        <v>8859</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="C74">
-        <v>6262</v>
+        <v>14207</v>
       </c>
       <c r="D74">
-        <v>19421</v>
+        <v>33854</v>
       </c>
       <c r="E74">
-        <v>8179</v>
+        <v>10396</v>
       </c>
       <c r="F74">
-        <v>4980</v>
+        <v>9251</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>205</v>
+        <v>376</v>
       </c>
       <c r="C75">
-        <v>7090</v>
+        <v>15910</v>
       </c>
       <c r="D75">
-        <v>21156</v>
+        <v>35197</v>
       </c>
       <c r="E75">
-        <v>8568</v>
+        <v>9740</v>
       </c>
       <c r="F75">
-        <v>5498</v>
+        <v>9547</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>240</v>
+        <v>431</v>
       </c>
       <c r="C76">
-        <v>7967</v>
+        <v>17727</v>
       </c>
       <c r="D76">
-        <v>22996</v>
+        <v>36398</v>
       </c>
       <c r="E76">
-        <v>8956</v>
+        <v>8907</v>
       </c>
       <c r="F76">
-        <v>6073</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>261</v>
+        <v>494</v>
       </c>
       <c r="C77">
-        <v>8968</v>
+        <v>19609</v>
       </c>
       <c r="D77">
-        <v>24855</v>
+        <v>37341</v>
       </c>
       <c r="E77">
-        <v>9390</v>
+        <v>7838</v>
       </c>
       <c r="F77">
-        <v>6497</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>294</v>
+        <v>576</v>
       </c>
       <c r="C78">
-        <v>10056</v>
+        <v>21458</v>
       </c>
       <c r="D78">
-        <v>26683</v>
+        <v>38153</v>
       </c>
       <c r="E78">
-        <v>9701</v>
+        <v>6779</v>
       </c>
       <c r="F78">
-        <v>6926</v>
+        <v>9916</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="C79">
-        <v>11242</v>
+        <v>23458</v>
       </c>
       <c r="D79">
-        <v>28417</v>
+        <v>38752</v>
       </c>
       <c r="E79">
-        <v>9777</v>
+        <v>5668</v>
       </c>
       <c r="F79">
-        <v>7398</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>369</v>
+        <v>742</v>
       </c>
       <c r="C80">
-        <v>12588</v>
+        <v>25457</v>
       </c>
       <c r="D80">
-        <v>30095</v>
+        <v>39172</v>
       </c>
       <c r="E80">
-        <v>9760</v>
+        <v>4622</v>
       </c>
       <c r="F80">
-        <v>7747</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>425</v>
+        <v>846</v>
       </c>
       <c r="C81">
-        <v>14040</v>
+        <v>27491</v>
       </c>
       <c r="D81">
-        <v>31738</v>
+        <v>39515</v>
       </c>
       <c r="E81">
-        <v>9624</v>
+        <v>3657</v>
       </c>
       <c r="F81">
-        <v>8074</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>477</v>
+        <v>951</v>
       </c>
       <c r="C82">
-        <v>15465</v>
+        <v>29503</v>
       </c>
       <c r="D82">
-        <v>33246</v>
+        <v>39719</v>
       </c>
       <c r="E82">
-        <v>9256</v>
+        <v>2791</v>
       </c>
       <c r="F82">
-        <v>8525</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>531</v>
+        <v>1073</v>
       </c>
       <c r="C83">
-        <v>16982</v>
+        <v>31374</v>
       </c>
       <c r="D83">
-        <v>34526</v>
+        <v>39821</v>
       </c>
       <c r="E83">
-        <v>8710</v>
+        <v>2015</v>
       </c>
       <c r="F83">
-        <v>8834</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>592</v>
+        <v>1208</v>
       </c>
       <c r="C84">
-        <v>18640</v>
+        <v>33084</v>
       </c>
       <c r="D84">
-        <v>35697</v>
+        <v>39913</v>
       </c>
       <c r="E84">
-        <v>8107</v>
+        <v>1416</v>
       </c>
       <c r="F84">
-        <v>8950</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>651</v>
+        <v>1335</v>
       </c>
       <c r="C85">
-        <v>20335</v>
+        <v>34550</v>
       </c>
       <c r="D85">
-        <v>36680</v>
+        <v>39945</v>
       </c>
       <c r="E85">
-        <v>7366</v>
+        <v>978</v>
       </c>
       <c r="F85">
-        <v>8979</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>742</v>
+        <v>1497</v>
       </c>
       <c r="C86">
-        <v>22114</v>
+        <v>35858</v>
       </c>
       <c r="D86">
-        <v>37578</v>
+        <v>39972</v>
       </c>
       <c r="E86">
-        <v>6623</v>
+        <v>610</v>
       </c>
       <c r="F86">
-        <v>8841</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>840</v>
+        <v>1657</v>
       </c>
       <c r="C87">
-        <v>23990</v>
+        <v>36928</v>
       </c>
       <c r="D87">
-        <v>38240</v>
+        <v>39986</v>
       </c>
       <c r="E87">
-        <v>5711</v>
+        <v>352</v>
       </c>
       <c r="F87">
-        <v>8539</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>921</v>
+        <v>1816</v>
       </c>
       <c r="C88">
-        <v>25816</v>
+        <v>37806</v>
       </c>
       <c r="D88">
-        <v>38729</v>
+        <v>39992</v>
       </c>
       <c r="E88">
-        <v>4813</v>
+        <v>218</v>
       </c>
       <c r="F88">
-        <v>8100</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1017</v>
+        <v>1984</v>
       </c>
       <c r="C89">
-        <v>27590</v>
+        <v>38497</v>
       </c>
       <c r="D89">
-        <v>39147</v>
+        <v>39995</v>
       </c>
       <c r="E89">
-        <v>3997</v>
+        <v>120</v>
       </c>
       <c r="F89">
-        <v>7560</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1115</v>
+        <v>2171</v>
       </c>
       <c r="C90">
-        <v>29314</v>
+        <v>38967</v>
       </c>
       <c r="D90">
-        <v>39422</v>
+        <v>39997</v>
       </c>
       <c r="E90">
-        <v>3161</v>
+        <v>63</v>
       </c>
       <c r="F90">
-        <v>6947</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1240</v>
+        <v>2334</v>
       </c>
       <c r="C91">
-        <v>30955</v>
+        <v>39362</v>
       </c>
       <c r="D91">
-        <v>39624</v>
+        <v>39998</v>
       </c>
       <c r="E91">
-        <v>2445</v>
+        <v>38</v>
       </c>
       <c r="F91">
-        <v>6224</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1359</v>
+        <v>2483</v>
       </c>
       <c r="C92">
-        <v>32529</v>
+        <v>39634</v>
       </c>
       <c r="D92">
-        <v>39755</v>
+        <v>40000</v>
       </c>
       <c r="E92">
-        <v>1822</v>
+        <v>20</v>
       </c>
       <c r="F92">
-        <v>5404</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1484</v>
+        <v>2627</v>
       </c>
       <c r="C93">
-        <v>33916</v>
+        <v>39774</v>
       </c>
       <c r="D93">
-        <v>39859</v>
+        <v>40000</v>
       </c>
       <c r="E93">
-        <v>1345</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>4598</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1640</v>
+        <v>2780</v>
       </c>
       <c r="C94">
-        <v>35150</v>
+        <v>39875</v>
       </c>
       <c r="D94">
-        <v>39912</v>
+        <v>40000</v>
       </c>
       <c r="E94">
-        <v>958</v>
+        <v>6</v>
       </c>
       <c r="F94">
-        <v>3804</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1792</v>
+        <v>2884</v>
       </c>
       <c r="C95">
-        <v>36261</v>
+        <v>39934</v>
       </c>
       <c r="D95">
-        <v>39943</v>
+        <v>40000</v>
       </c>
       <c r="E95">
-        <v>637</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>3045</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1956</v>
+        <v>2985</v>
       </c>
       <c r="C96">
-        <v>37179</v>
+        <v>39960</v>
       </c>
       <c r="D96">
-        <v>39970</v>
+        <v>40000</v>
       </c>
       <c r="E96">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>2351</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2141</v>
+        <v>3074</v>
       </c>
       <c r="C97">
-        <v>37933</v>
+        <v>39980</v>
       </c>
       <c r="D97">
-        <v>39981</v>
+        <v>40000</v>
       </c>
       <c r="E97">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1766</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2310</v>
+        <v>3130</v>
       </c>
       <c r="C98">
-        <v>38514</v>
+        <v>39990</v>
       </c>
       <c r="D98">
-        <v>39987</v>
+        <v>40000</v>
       </c>
       <c r="E98">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1301</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2483</v>
+        <v>3197</v>
       </c>
       <c r="C99">
-        <v>38954</v>
+        <v>39994</v>
       </c>
       <c r="D99">
-        <v>39992</v>
+        <v>40000</v>
       </c>
       <c r="E99">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>932</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2610</v>
+        <v>3237</v>
       </c>
       <c r="C100">
-        <v>39306</v>
+        <v>39996</v>
       </c>
       <c r="D100">
-        <v>39995</v>
+        <v>40000</v>
       </c>
       <c r="E100">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>623</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2767</v>
+        <v>3264</v>
       </c>
       <c r="C101">
-        <v>39530</v>
+        <v>39997</v>
       </c>
       <c r="D101">
-        <v>39998</v>
+        <v>40000</v>
       </c>
       <c r="E101">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>426</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2919</v>
+        <v>3285</v>
       </c>
       <c r="C102">
-        <v>39699</v>
+        <v>39999</v>
       </c>
       <c r="D102">
-        <v>39999</v>
+        <v>40000</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>3046</v>
+        <v>3295</v>
       </c>
       <c r="C103">
-        <v>39815</v>
+        <v>40000</v>
       </c>
       <c r="D103">
-        <v>39999</v>
+        <v>40000</v>
       </c>
       <c r="E103">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>3166</v>
+        <v>3303</v>
       </c>
       <c r="C104">
-        <v>39886</v>
+        <v>40000</v>
       </c>
       <c r="D104">
         <v>40000</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3259</v>
+        <v>3308</v>
       </c>
       <c r="C105">
-        <v>39929</v>
+        <v>40000</v>
       </c>
       <c r="D105">
         <v>40000</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3350</v>
+        <v>3310</v>
       </c>
       <c r="C106">
-        <v>39956</v>
+        <v>40000</v>
       </c>
       <c r="D106">
         <v>40000</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3425</v>
+        <v>3312</v>
       </c>
       <c r="C107">
-        <v>39979</v>
+        <v>40000</v>
       </c>
       <c r="D107">
         <v>40000</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3478</v>
+        <v>3312</v>
       </c>
       <c r="C108">
-        <v>39982</v>
+        <v>40000</v>
       </c>
       <c r="D108">
         <v>40000</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2554,10 +2554,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>3516</v>
+        <v>3312</v>
       </c>
       <c r="C109">
-        <v>39990</v>
+        <v>40000</v>
       </c>
       <c r="D109">
         <v>40000</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2574,10 +2574,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3538</v>
+        <v>3312</v>
       </c>
       <c r="C110">
-        <v>39995</v>
+        <v>40000</v>
       </c>
       <c r="D110">
         <v>40000</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2594,10 +2594,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3558</v>
+        <v>3312</v>
       </c>
       <c r="C111">
-        <v>39997</v>
+        <v>40000</v>
       </c>
       <c r="D111">
         <v>40000</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2614,10 +2614,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3575</v>
+        <v>3312</v>
       </c>
       <c r="C112">
-        <v>39999</v>
+        <v>40000</v>
       </c>
       <c r="D112">
         <v>40000</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2634,10 +2634,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3584</v>
+        <v>3312</v>
       </c>
       <c r="C113">
-        <v>39999</v>
+        <v>40000</v>
       </c>
       <c r="D113">
         <v>40000</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3593</v>
+        <v>3312</v>
       </c>
       <c r="C114">
         <v>40000</v>
@@ -2674,7 +2674,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3596</v>
+        <v>3312</v>
       </c>
       <c r="C115">
         <v>40000</v>
@@ -2694,7 +2694,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>3599</v>
+        <v>3312</v>
       </c>
       <c r="C116">
         <v>40000</v>
@@ -2714,7 +2714,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3601</v>
+        <v>3312</v>
       </c>
       <c r="C117">
         <v>40000</v>
@@ -2734,7 +2734,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>3602</v>
+        <v>3312</v>
       </c>
       <c r="C118">
         <v>40000</v>
@@ -2754,7 +2754,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3602</v>
+        <v>3312</v>
       </c>
       <c r="C119">
         <v>40000</v>
@@ -2774,7 +2774,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C120">
         <v>40000</v>
@@ -2794,7 +2794,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C121">
         <v>40000</v>
@@ -2814,7 +2814,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C122">
         <v>40000</v>
@@ -2834,7 +2834,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C123">
         <v>40000</v>
@@ -2854,7 +2854,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C124">
         <v>40000</v>
@@ -2874,7 +2874,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C125">
         <v>40000</v>
@@ -2894,7 +2894,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C126">
         <v>40000</v>
@@ -2914,7 +2914,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C127">
         <v>40000</v>
@@ -2934,7 +2934,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C128">
         <v>40000</v>
@@ -2954,7 +2954,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C129">
         <v>40000</v>
@@ -2974,7 +2974,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C130">
         <v>40000</v>
@@ -2994,7 +2994,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C131">
         <v>40000</v>
@@ -3014,7 +3014,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C132">
         <v>40000</v>
@@ -3034,7 +3034,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C133">
         <v>40000</v>
@@ -3054,7 +3054,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C134">
         <v>40000</v>
@@ -3074,7 +3074,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C135">
         <v>40000</v>
@@ -3094,7 +3094,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C136">
         <v>40000</v>
@@ -3114,7 +3114,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C137">
         <v>40000</v>
@@ -3134,7 +3134,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C138">
         <v>40000</v>
@@ -3154,7 +3154,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C139">
         <v>40000</v>
@@ -3174,7 +3174,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C140">
         <v>40000</v>
@@ -3194,7 +3194,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C141">
         <v>40000</v>
@@ -3214,7 +3214,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C142">
         <v>40000</v>
@@ -3234,7 +3234,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C143">
         <v>40000</v>
@@ -3254,7 +3254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C144">
         <v>40000</v>
@@ -3274,7 +3274,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C145">
         <v>40000</v>
@@ -3294,7 +3294,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C146">
         <v>40000</v>
@@ -3314,7 +3314,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C147">
         <v>40000</v>
@@ -3334,7 +3334,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C148">
         <v>40000</v>
@@ -3354,7 +3354,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C149">
         <v>40000</v>
@@ -3374,7 +3374,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C150">
         <v>40000</v>
@@ -3394,7 +3394,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C151">
         <v>40000</v>
@@ -3414,7 +3414,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C152">
         <v>40000</v>
@@ -3434,7 +3434,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C153">
         <v>40000</v>
@@ -3454,7 +3454,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C154">
         <v>40000</v>
@@ -3474,7 +3474,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C155">
         <v>40000</v>
@@ -3494,7 +3494,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C156">
         <v>40000</v>
@@ -3514,7 +3514,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C157">
         <v>40000</v>
@@ -3534,7 +3534,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C158">
         <v>40000</v>
@@ -3554,7 +3554,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C159">
         <v>40000</v>
@@ -3574,7 +3574,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C160">
         <v>40000</v>
@@ -3594,7 +3594,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C161">
         <v>40000</v>
@@ -3614,7 +3614,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C162">
         <v>40000</v>
@@ -3634,7 +3634,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C163">
         <v>40000</v>
@@ -3654,7 +3654,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C164">
         <v>40000</v>
@@ -3674,7 +3674,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C165">
         <v>40000</v>
@@ -3694,7 +3694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C166">
         <v>40000</v>
@@ -3714,7 +3714,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C167">
         <v>40000</v>
@@ -3734,7 +3734,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C168">
         <v>40000</v>
@@ -3754,7 +3754,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C169">
         <v>40000</v>
@@ -3774,7 +3774,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C170">
         <v>40000</v>
@@ -3794,7 +3794,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C171">
         <v>40000</v>
@@ -3814,7 +3814,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C172">
         <v>40000</v>
@@ -3834,7 +3834,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C173">
         <v>40000</v>
@@ -3854,7 +3854,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C174">
         <v>40000</v>
@@ -3874,7 +3874,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C175">
         <v>40000</v>
@@ -3894,7 +3894,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C176">
         <v>40000</v>
@@ -3914,7 +3914,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C177">
         <v>40000</v>
@@ -3934,7 +3934,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C178">
         <v>40000</v>
@@ -3954,7 +3954,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C179">
         <v>40000</v>
@@ -3974,7 +3974,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C180">
         <v>40000</v>
@@ -3994,7 +3994,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C181">
         <v>40000</v>
@@ -4014,7 +4014,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C182">
         <v>40000</v>
@@ -4034,7 +4034,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C183">
         <v>40000</v>
@@ -4054,7 +4054,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C184">
         <v>40000</v>
@@ -4074,7 +4074,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C185">
         <v>40000</v>
@@ -4094,7 +4094,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C186">
         <v>40000</v>
@@ -4114,7 +4114,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C187">
         <v>40000</v>
@@ -4134,7 +4134,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C188">
         <v>40000</v>
@@ -4154,7 +4154,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C189">
         <v>40000</v>
@@ -4174,7 +4174,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C190">
         <v>40000</v>
@@ -4194,7 +4194,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C191">
         <v>40000</v>
@@ -4214,7 +4214,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C192">
         <v>40000</v>
@@ -4234,7 +4234,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C193">
         <v>40000</v>
@@ -4254,7 +4254,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C194">
         <v>40000</v>
@@ -4274,7 +4274,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C195">
         <v>40000</v>
@@ -4294,7 +4294,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C196">
         <v>40000</v>
@@ -4314,7 +4314,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C197">
         <v>40000</v>
@@ -4334,7 +4334,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C198">
         <v>40000</v>
@@ -4354,7 +4354,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C199">
         <v>40000</v>
@@ -4374,7 +4374,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C200">
         <v>40000</v>
@@ -4394,7 +4394,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C201">
         <v>40000</v>
@@ -4414,7 +4414,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3603</v>
+        <v>3312</v>
       </c>
       <c r="C202">
         <v>40000</v>
